--- a/runSNfinalink.xlsx
+++ b/runSNfinalink.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/courtcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_40EDB1FCD261CE0F62355476585DCE3A874E8A2C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DA7F22D-6BD6-4C55-A47D-6125CCD56943}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_40EDB1FCD261CE0F62355476585DCE3A874E8A2C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02A07ED4-D645-482F-BAB8-A54841807D49}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="1948">
   <si>
     <t>Search Term</t>
   </si>
@@ -5940,6 +5941,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6226,10 +6231,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDD875B-5FAC-4741-9A4A-E371367CEB3B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2232" workbookViewId="0"/>
+    <sheetView topLeftCell="A1441" workbookViewId="0">
+      <selection activeCell="A1441" sqref="A1441:XFD1445"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
